--- a/website/word_heat/data/topic_percentile.xlsx
+++ b/website/word_heat/data/topic_percentile.xlsx
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.3018280824581875</v>
+        <v>0.4541955350269438</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.3053286658887592</v>
+        <v>0.4988452655889146</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.4990268586998832</v>
+        <v>0.8297380585516179</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.2465007776049767</v>
+        <v>0.2327818391689111</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.3139083139083139</v>
+        <v>0.3460207612456747</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.6236349453978159</v>
+        <v>0.9571593979158626</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.155011655011655</v>
+        <v>0.2510572856593618</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.8180404354587869</v>
+        <v>0.422085417468257</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.3750972762645914</v>
+        <v>0.5390835579514824</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.7150642273258077</v>
+        <v>0.9006163328197226</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.6034798534798534</v>
+        <v>0.704658525554048</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.2440638380692877</v>
+        <v>0.3247303543913713</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.411284046692607</v>
+        <v>0.6453600308047748</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.7138401559454191</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.4809338521400778</v>
+        <v>0.6696187909125915</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.8334636434714621</v>
+        <v>0.9125725338491296</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.07303807303807304</v>
+        <v>0.2049211841599385</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.958706661472536</v>
+        <v>0.9745566692367</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.990234375</v>
+        <v>0.9880170081175106</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.2788798133022171</v>
+        <v>0.5361816782140107</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4542623588945115</v>
+        <v>0.6124807395993837</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.8665369649805448</v>
+        <v>0.2591451675009627</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.2665112665112665</v>
+        <v>0.2895040369088812</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.796887159533074</v>
+        <v>0.7373892953407778</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.430739299610895</v>
+        <v>0.6572968810165576</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.8499025341130604</v>
+        <v>0.7993827160493827</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.796887159533074</v>
+        <v>0.8994994224104736</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.243978243978244</v>
+        <v>0.28719723183391</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.2238631947143412</v>
+        <v>0.2492307692307692</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.935672514619883</v>
+        <v>0.9857253086419753</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.8410596026490066</v>
+        <v>0.9525828835774865</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.8187134502923976</v>
+        <v>0.9594907407407407</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.7907429015947103</v>
+        <v>0.8294842186297152</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.5894245723172629</v>
+        <v>0.4374759522893421</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.2187257187257187</v>
+        <v>0.28719723183391</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.2339681305868636</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.4943557804593227</v>
+        <v>0.7600154083204931</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.4522417153996101</v>
+        <v>0.5748456790123457</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.268558103381267</v>
+        <v>0.3511538461538461</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.9168942645337496</v>
+        <v>0.7532818532818533</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.8333988212180746</v>
+        <v>0.7402799377916018</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.9727520435967303</v>
+        <v>0.9946070878274268</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.2442629327110074</v>
+        <v>0.2844495765973826</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.9594067135050741</v>
+        <v>0.9984550019312476</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.2805447470817121</v>
+        <v>0.3746630727762803</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.4326323987538941</v>
+        <v>0.5660886319845857</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.9201091192517536</v>
+        <v>0.9078287697647512</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.8664850136239782</v>
+        <v>0.9337442218798151</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.8483430799220273</v>
+        <v>0.9155092592592593</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.8899297423887588</v>
+        <v>0.9088451139436076</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.8412634946021591</v>
+        <v>0.7432753164556962</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.8952084144916245</v>
+        <v>0.9618350038550502</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.3490272373540856</v>
+        <v>0.5333076626877166</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.7914396887159533</v>
+        <v>0.5333076626877166</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.9048361934477379</v>
+        <v>0.8938633732149749</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.8165887850467289</v>
+        <v>0.9522157996146435</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.4345098039215686</v>
+        <v>0.5979821497865735</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.8328137178487919</v>
+        <v>0.8040879290397224</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.9824492979719188</v>
+        <v>0.9853338479351602</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.6634127294025771</v>
+        <v>0.7198608964451314</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.2599067599067599</v>
+        <v>0.2933487120338331</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.2587412587412588</v>
+        <v>0.3440984236831988</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.3377483443708609</v>
+        <v>0.6349267540478026</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.5582391897156214</v>
+        <v>0.6276021588280648</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.6355833008193523</v>
+        <v>0.8305019305019306</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.2155408043732917</v>
+        <v>0.2360896445131375</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.8211223694466095</v>
+        <v>0.9197840339375241</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.4976635514018692</v>
+        <v>0.7221579961464355</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.2121212121212121</v>
+        <v>0.2672049211841599</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.7284382284382285</v>
+        <v>0.9692425990003845</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.9762553522771507</v>
+        <v>0.9572419106317411</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.2302888368462139</v>
+        <v>0.3383545770567787</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.8814814814814815</v>
+        <v>0.9448302469135802</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.940809968847352</v>
+        <v>0.9926782273603083</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.7100545596258768</v>
+        <v>0.9078287697647512</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.1732711732711733</v>
+        <v>0.2687427912341407</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.9213701829505644</v>
+        <v>0.9645608628659477</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.9684579439252337</v>
+        <v>0.9302504816955685</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.9256520046710782</v>
+        <v>0.9857473035439137</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.9684579439252337</v>
+        <v>0.9433526011560693</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.9575379820802493</v>
+        <v>0.9803392444101773</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.4931827035449942</v>
+        <v>0.6777178103315343</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.5913200723327305</v>
+        <v>0.7301304863582444</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.2132867132867133</v>
+        <v>0.301038062283737</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.8283681636282793</v>
+        <v>0.6151142355008787</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.9420007785130401</v>
+        <v>0.924884437596302</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.9661346827559362</v>
+        <v>0.975346687211094</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.7826765509168943</v>
+        <v>0.9019305019305019</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.9068952084144917</v>
+        <v>0.9336931380107941</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.3803967327887982</v>
+        <v>0.4130100076982294</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.9945376511900117</v>
+        <v>0.9861003861003861</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.864024864024864</v>
+        <v>0.7650903498654363</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.469856087125632</v>
+        <v>0.6497305619707467</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.941955590183093</v>
+        <v>0.9009252120277563</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.2408702408702409</v>
+        <v>0.263360246059208</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.3585858585858586</v>
+        <v>0.3679354094579008</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.8742088607594937</v>
+        <v>0.8919765166340509</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.2712786630392538</v>
+        <v>0.455</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.4608797197353056</v>
+        <v>0.6933744221879815</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.8995327102803738</v>
+        <v>0.9325626204238922</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>

--- a/website/word_heat/data/topic_percentile.xlsx
+++ b/website/word_heat/data/topic_percentile.xlsx
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4541955350269438</v>
+        <v>0.3843537414965986</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.4988452655889146</v>
+        <v>0.3611635814129203</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.8297380585516179</v>
+        <v>0.4417549167927383</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.2327818391689111</v>
+        <v>0.4346676737160121</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.3460207612456747</v>
+        <v>0.2773584905660377</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.9571593979158626</v>
+        <v>0.6924242424242424</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.2510572856593618</v>
+        <v>0.3128301886792453</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.422085417468257</v>
+        <v>0.763595166163142</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.5390835579514824</v>
+        <v>0.3707482993197279</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.9006163328197226</v>
+        <v>0.7958412098298677</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.704658525554048</v>
+        <v>0.6817375886524822</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.3247303543913713</v>
+        <v>0.3137996219281664</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.6453600308047748</v>
+        <v>0.3167044595616024</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.7083333333333334</v>
+        <v>0.4357711254262979</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.6696187909125915</v>
+        <v>0.3208616780045351</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.9125725338491296</v>
+        <v>0.8389669578427649</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.2049211841599385</v>
+        <v>0.2773584905660377</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.9745566692367</v>
+        <v>0.8872493378736285</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.9880170081175106</v>
+        <v>0.6794385432473444</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.5361816782140107</v>
+        <v>0.273620559334845</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.6124807395993837</v>
+        <v>0.416036308623298</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.2591451675009627</v>
+        <v>0.7611489040060468</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.2895040369088812</v>
+        <v>0.3552283880709702</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.7373892953407778</v>
+        <v>0.6730914588057445</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.6572968810165576</v>
+        <v>0.2842025699168556</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.7993827160493827</v>
+        <v>0.6209769026883756</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.8994994224104736</v>
+        <v>0.8786389413988658</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.28719723183391</v>
+        <v>0.3641509433962264</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.2492307692307692</v>
+        <v>0.2503776435045317</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.9857253086419753</v>
+        <v>0.9939393939393939</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.9525828835774865</v>
+        <v>0.3931138857359062</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.9594907407407407</v>
+        <v>0.369935630443014</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.8294842186297152</v>
+        <v>0.8027956176803929</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.4374759522893421</v>
+        <v>0.4758308157099698</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.28719723183391</v>
+        <v>0.3350943396226415</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.3384615384615385</v>
+        <v>0.2570781426953567</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.7600154083204931</v>
+        <v>0.3829867674858223</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.5748456790123457</v>
+        <v>0.3294206739871261</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.3511538461538461</v>
+        <v>0.3431483578708947</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.7532818532818533</v>
+        <v>0.6905574516496018</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.7402799377916018</v>
+        <v>0.8294544067149943</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.9946070878274268</v>
+        <v>0.9837306091562619</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.2844495765973826</v>
+        <v>0.2667170381564035</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.9984550019312476</v>
+        <v>0.6243366186504928</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.3746630727762803</v>
+        <v>0.414366729678639</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.5660886319845857</v>
+        <v>0.4209531013615734</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.9078287697647512</v>
+        <v>0.9432033320711851</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.9337442218798151</v>
+        <v>0.6563327032136106</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.9155092592592593</v>
+        <v>0.9492616433169254</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.9088451139436076</v>
+        <v>0.8865705614567526</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.7432753164556962</v>
+        <v>0.7165048543689321</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.9618350038550502</v>
+        <v>0.872396819386596</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.5333076626877166</v>
+        <v>0.4198790627362056</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.5333076626877166</v>
+        <v>0.6273620559334845</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.8938633732149749</v>
+        <v>0.7393939393939394</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.9522157996146435</v>
+        <v>0.5881240544629349</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.5979821497865735</v>
+        <v>0.8377760853008378</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.8040879290397224</v>
+        <v>0.4685844057532172</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.9853338479351602</v>
+        <v>0.9124668435013262</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.7198608964451314</v>
+        <v>0.7171027682973076</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.2933487120338331</v>
+        <v>0.2667924528301887</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.3440984236831988</v>
+        <v>0.3241509433962264</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.6349267540478026</v>
+        <v>0.4525160802118804</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.6276021588280648</v>
+        <v>0.242905788876277</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.8305019305019306</v>
+        <v>0.3971201212580523</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.2360896445131375</v>
+        <v>0.2522761760242792</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.9197840339375241</v>
+        <v>0.814085573646346</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.7221579961464355</v>
+        <v>0.7964434354899735</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.2672049211841599</v>
+        <v>0.3384905660377359</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.9692425990003845</v>
+        <v>0.2652830188679245</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.9572419106317411</v>
+        <v>0.9209829867674858</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.3383545770567787</v>
+        <v>0.2066742510428517</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.9448302469135802</v>
+        <v>0.5191215448693677</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.9926782273603083</v>
+        <v>0.630105900151286</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.9078287697647512</v>
+        <v>0.808099924299773</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.2687427912341407</v>
+        <v>0.2933182332955833</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.9645608628659477</v>
+        <v>0.6635160680529301</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.9302504816955685</v>
+        <v>0.8434190620272315</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.9857473035439137</v>
+        <v>0.8438563327032136</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.9433526011560693</v>
+        <v>0.9356791524782444</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.9803392444101773</v>
+        <v>0.8823306848278472</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.6777178103315343</v>
+        <v>0.3991676125614831</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.7301304863582444</v>
+        <v>0.7471198156682027</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.301038062283737</v>
+        <v>0.310188679245283</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.6151142355008787</v>
+        <v>0.8053402239448751</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.924884437596302</v>
+        <v>0.7671077504725898</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.975346687211094</v>
+        <v>0.7565217391304347</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.9019305019305019</v>
+        <v>0.5836177474402731</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.9336931380107941</v>
+        <v>0.9341657207718501</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.4130100076982294</v>
+        <v>0.3634302984510767</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.9861003861003861</v>
+        <v>0.8116710875331565</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.7650903498654363</v>
+        <v>0.8728301886792453</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.6497305619707467</v>
+        <v>0.3751416698148848</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.9009252120277563</v>
+        <v>0.7441332323996972</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.263360246059208</v>
+        <v>0.3249056603773585</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.3679354094579008</v>
+        <v>0.6547169811320754</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.8919765166340509</v>
+        <v>0.8693312836279785</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.455</v>
+        <v>0.5866364665911665</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.6933744221879815</v>
+        <v>0.4011342155009452</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.9325626204238922</v>
+        <v>0.642965204236006</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>

--- a/website/word_heat/data/topic_percentile.xlsx
+++ b/website/word_heat/data/topic_percentile.xlsx
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.3843537414965986</v>
+        <v>0.2397594889139421</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.3611635814129203</v>
+        <v>0.2168357760240511</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.4417549167927383</v>
+        <v>0.3260624294847687</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.4346676737160121</v>
+        <v>0.3662659654395192</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2773584905660377</v>
+        <v>0.3697447447447447</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.6924242424242424</v>
+        <v>0.2878673700075358</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.3128301886792453</v>
+        <v>0.1974474474474474</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.763595166163142</v>
+        <v>0.4432757325319309</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.3707482993197279</v>
+        <v>0.2582706766917293</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.7958412098298677</v>
+        <v>0.3836028582173749</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.6817375886524822</v>
+        <v>0.7188737351517818</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.3137996219281664</v>
+        <v>0.3365927040240692</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.3167044595616024</v>
+        <v>0.3015037593984962</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.4357711254262979</v>
+        <v>0.3743879472693032</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.3208616780045351</v>
+        <v>0.1962406015037594</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.8389669578427649</v>
+        <v>0.6982628398791541</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.2773584905660377</v>
+        <v>0.1869369369369369</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.8872493378736285</v>
+        <v>0.7986450884456153</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.6794385432473444</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.273620559334845</v>
+        <v>0.2337467117624953</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.416036308623298</v>
+        <v>0.3546446032342986</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.7611489040060468</v>
+        <v>0.5379699248120301</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.3552283880709702</v>
+        <v>0.2811561561561561</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.6730914588057445</v>
+        <v>0.5639097744360902</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.2842025699168556</v>
+        <v>0.2548872180451128</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.6209769026883756</v>
+        <v>0.7291902071563089</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.8786389413988658</v>
+        <v>0.5969924812030075</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.3641509433962264</v>
+        <v>0.3430930930930931</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.2503776435045317</v>
+        <v>0.2876455125797972</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.9939393939393939</v>
+        <v>0.7235404896421845</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.3931138857359062</v>
+        <v>0.2785095972901769</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.369935630443014</v>
+        <v>0.3205273069679849</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.8027956176803929</v>
+        <v>0.5952649379932357</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.4758308157099698</v>
+        <v>0.2674680691209617</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.3350943396226415</v>
+        <v>0.2931681681681682</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.2570781426953567</v>
+        <v>0.2369508073601202</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.3829867674858223</v>
+        <v>0.2914629559984957</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.3294206739871261</v>
+        <v>0.223728813559322</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.3431483578708947</v>
+        <v>0.2117912129177619</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.6905574516496018</v>
+        <v>0.3335846211835658</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.8294544067149943</v>
+        <v>0.8648956356736243</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.9837306091562619</v>
+        <v>0.9469725460699511</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.2667170381564035</v>
+        <v>0.2645621946636603</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.6243366186504928</v>
+        <v>0.798265460030166</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.414366729678639</v>
+        <v>0.2545112781954887</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.4209531013615734</v>
+        <v>0.2310007524454477</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.9432033320711851</v>
+        <v>0.8335843373493976</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.6563327032136106</v>
+        <v>0.5419330575404288</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.9492616433169254</v>
+        <v>0.767984934086629</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.8865705614567526</v>
+        <v>0.774132730015083</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.7165048543689321</v>
+        <v>0.8506368197607102</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.872396819386596</v>
+        <v>0.6974030861874294</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.4198790627362056</v>
+        <v>0.2120300751879699</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.6273620559334845</v>
+        <v>0.2977443609022556</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.7393939393939394</v>
+        <v>0.6379050489826676</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.5881240544629349</v>
+        <v>0.401053423626787</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.8377760853008378</v>
+        <v>0.4178030303030303</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.4685844057532172</v>
+        <v>0.6061746987951807</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.9124668435013262</v>
+        <v>0.8896006028636021</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.7171027682973076</v>
+        <v>0.6865333836288193</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.2667924528301887</v>
+        <v>0.2965465465465466</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.3241509433962264</v>
+        <v>0.2785285285285286</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.4525160802118804</v>
+        <v>0.2051185547610087</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.242905788876277</v>
+        <v>0.2427549868272488</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.3971201212580523</v>
+        <v>0.393516773464003</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.2522761760242792</v>
+        <v>0.1920030177291588</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.814085573646346</v>
+        <v>0.8377259036144579</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.7964434354899735</v>
+        <v>0.3310759969902182</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.3384905660377359</v>
+        <v>0.2338588588588588</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.2652830188679245</v>
+        <v>0.5716966966966966</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.9209829867674858</v>
+        <v>0.8916886047386235</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.2066742510428517</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.5191215448693677</v>
+        <v>0.3254237288135593</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.630105900151286</v>
+        <v>0.59104589917231</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.808099924299773</v>
+        <v>0.473644578313253</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.2933182332955833</v>
+        <v>0.2593843843843844</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.6635160680529301</v>
+        <v>0.5577284693493795</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.8434190620272315</v>
+        <v>0.8160270880361173</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.8438563327032136</v>
+        <v>0.6404663407295976</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.9356791524782444</v>
+        <v>0.8803611738148984</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.8823306848278472</v>
+        <v>0.8291305984192698</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.3991676125614831</v>
+        <v>0.3191569439217162</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.7471198156682027</v>
+        <v>0.7631278538812786</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.310188679245283</v>
+        <v>0.213963963963964</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.8053402239448751</v>
+        <v>0.7310816588285592</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.7671077504725898</v>
+        <v>0.5114704776231666</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.7565217391304347</v>
+        <v>0.7830011282437006</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.5836177474402731</v>
+        <v>0.4489257444402563</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.9341657207718501</v>
+        <v>0.8182160331200602</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.3634302984510767</v>
+        <v>0.2078166102968809</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.8116710875331565</v>
+        <v>0.89860535243121</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.8728301886792453</v>
+        <v>0.8314564564564565</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.3751416698148848</v>
+        <v>0.2705749718151071</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.7441332323996972</v>
+        <v>0.3285660519382763</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.3249056603773585</v>
+        <v>0.3014264264264264</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.6547169811320754</v>
+        <v>0.3141891891891892</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.8693312836279785</v>
+        <v>0.7291825821237586</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.5866364665911665</v>
+        <v>0.2425835523845287</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.4011342155009452</v>
+        <v>0.3177886423467469</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.642965204236006</v>
+        <v>0.7287434161023326</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>

--- a/website/word_heat/data/topic_percentile.xlsx
+++ b/website/word_heat/data/topic_percentile.xlsx
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.2397594889139421</v>
+        <v>0.2641438741101536</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.2168357760240511</v>
+        <v>0.2442862495316598</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.3260624294847687</v>
+        <v>0.265466816647919</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.3662659654395192</v>
+        <v>0.4293742974896965</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.3697447447447447</v>
+        <v>0.3690119760479042</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.2878673700075358</v>
+        <v>0.2596768132281098</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.1974474474474474</v>
+        <v>0.1770209580838323</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.4432757325319309</v>
+        <v>0.47695766204571</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.2582706766917293</v>
+        <v>0.4681409295352324</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.3836028582173749</v>
+        <v>0.3880764904386952</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.7188737351517818</v>
+        <v>0.7679824561403509</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.3365927040240692</v>
+        <v>0.9399849962490623</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.3015037593984962</v>
+        <v>0.9107946026986506</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.3743879472693032</v>
+        <v>0.321066466391288</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.1962406015037594</v>
+        <v>0.2743628185907047</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.6982628398791541</v>
+        <v>0.8598870056497175</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.1869369369369369</v>
+        <v>0.1605538922155689</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.7986450884456153</v>
+        <v>0.7778611632270169</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.8301886792452831</v>
+        <v>0.8238614979299962</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.2337467117624953</v>
+        <v>0.3158486324466092</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.3546446032342986</v>
+        <v>0.4349456317960255</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.5379699248120301</v>
+        <v>0.3877015373078365</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.2811561561561561</v>
+        <v>0.3158682634730539</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.5639097744360902</v>
+        <v>0.9359070464767616</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.2548872180451128</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.7291902071563089</v>
+        <v>0.8633120540743522</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.5969924812030075</v>
+        <v>0.5191154422788605</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.3430930930930931</v>
+        <v>0.3686377245508982</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.2876455125797972</v>
+        <v>0.350187265917603</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.7235404896421845</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.2785095972901769</v>
+        <v>0.2819069069069069</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.3205273069679849</v>
+        <v>0.2628614344723996</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.5952649379932357</v>
+        <v>0.8711127763207194</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.2674680691209617</v>
+        <v>0.349438202247191</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.2931681681681682</v>
+        <v>0.2683383233532934</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.2369508073601202</v>
+        <v>0.4187265917602996</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.2914629559984957</v>
+        <v>0.4311961004874391</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.223728813559322</v>
+        <v>0.2956423741547708</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.2117912129177619</v>
+        <v>0.2306252339947585</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.3335846211835658</v>
+        <v>0.3652762119503946</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.8648956356736243</v>
+        <v>0.8630344305713205</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.9469725460699511</v>
+        <v>0.952755905511811</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.2645621946636603</v>
+        <v>0.3654422788605697</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.798265460030166</v>
+        <v>0.7924812030075188</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.2545112781954887</v>
+        <v>0.3359580052493438</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.2310007524454477</v>
+        <v>0.2329332333083271</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.8335843373493976</v>
+        <v>0.6775525525525525</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.5419330575404288</v>
+        <v>0.901387326584177</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.767984934086629</v>
+        <v>0.9857303792714983</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.774132730015083</v>
+        <v>0.8672932330827068</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.8506368197607102</v>
+        <v>0.6793687451886066</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.6974030861874294</v>
+        <v>0.4960600375234522</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.2120300751879699</v>
+        <v>0.2436281859070465</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.2977443609022556</v>
+        <v>0.2462518740629685</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.6379050489826676</v>
+        <v>0.9211119459053343</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.401053423626787</v>
+        <v>0.4624906226556639</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.4178030303030303</v>
+        <v>0.7147714393653193</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.6061746987951807</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.8896006028636021</v>
+        <v>0.9124718256949662</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.6865333836288193</v>
+        <v>0.9341610233258089</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.2965465465465466</v>
+        <v>0.3716317365269461</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.2785285285285286</v>
+        <v>0.3622754491017964</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.2051185547610087</v>
+        <v>0.2941838649155722</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.2427549868272488</v>
+        <v>0.253003003003003</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.393516773464003</v>
+        <v>0.4208944006012777</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.1920030177291588</v>
+        <v>0.2106847253574116</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.8377259036144579</v>
+        <v>0.8978978978978979</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.3310759969902182</v>
+        <v>0.2936984246061515</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.2338588588588588</v>
+        <v>0.3342065868263473</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.5716966966966966</v>
+        <v>0.5726047904191617</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.8916886047386235</v>
+        <v>0.9115110611173604</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.1538461538461539</v>
+        <v>0.1793907484016548</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.3254237288135593</v>
+        <v>0.3169357867067217</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.59104589917231</v>
+        <v>0.6875468867216804</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.473644578313253</v>
+        <v>0.7203453453453453</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.2593843843843844</v>
+        <v>0.3057634730538922</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.5577284693493795</v>
+        <v>0.4664416947881515</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.8160270880361173</v>
+        <v>0.7764441110277569</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.6404663407295976</v>
+        <v>0.7229096362954631</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.8803611738148984</v>
+        <v>0.8938484621155289</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.8291305984192698</v>
+        <v>0.975234521575985</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.3191569439217162</v>
+        <v>0.2964352720450281</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.7631278538812786</v>
+        <v>0.7595224559408755</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.213963963963964</v>
+        <v>0.2885479041916167</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.7310816588285592</v>
+        <v>0.8878942881500427</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.5114704776231666</v>
+        <v>0.4131983502062242</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.7830011282437006</v>
+        <v>0.7559055118110236</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.4489257444402563</v>
+        <v>0.4054866591506952</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.8182160331200602</v>
+        <v>0.9879924953095685</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.2078166102968809</v>
+        <v>0.2671412514050206</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.89860535243121</v>
+        <v>0.9097744360902256</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.8314564564564565</v>
+        <v>0.9232784431137725</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.2705749718151071</v>
+        <v>0.7898089171974523</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.3285660519382763</v>
+        <v>0.3718574108818011</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.3014264264264264</v>
+        <v>0.3383233532934132</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.3141891891891892</v>
+        <v>0.3068862275449102</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.7291825821237586</v>
+        <v>0.7904761904761904</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.2425835523845287</v>
+        <v>0.2452265069262448</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.3177886423467469</v>
+        <v>0.5916760404949382</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.7287434161023326</v>
+        <v>0.6822955738934734</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>

--- a/website/word_heat/data/topic_percentile.xlsx
+++ b/website/word_heat/data/topic_percentile.xlsx
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.2641438741101536</v>
+        <v>0.2307121661721068</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.2442862495316598</v>
+        <v>0.2718842729970327</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.265466816647919</v>
+        <v>0.366369710467706</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.4293742974896965</v>
+        <v>0.3667037449017427</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.3690119760479042</v>
+        <v>0.62726935902186</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.2596768132281098</v>
+        <v>0.3421346225362588</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.1770209580838323</v>
+        <v>0.1904409040385328</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.47695766204571</v>
+        <v>0.5906562847608454</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.4681409295352324</v>
+        <v>0.3996289424860853</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.3880764904386952</v>
+        <v>0.4866369710467706</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.7679824561403509</v>
+        <v>0.5944540727902946</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.9399849962490623</v>
+        <v>0.5055679287305123</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.9107946026986506</v>
+        <v>0.6564007421150279</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.321066466391288</v>
+        <v>0.5178438661710038</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.2743628185907047</v>
+        <v>0.4100185528756957</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.8598870056497175</v>
+        <v>0.937383525903839</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.1605538922155689</v>
+        <v>0.161170804001482</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.7778611632270169</v>
+        <v>0.8517830609212481</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.8238614979299962</v>
+        <v>0.9277467411545623</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.3158486324466092</v>
+        <v>0.2900593471810089</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4349456317960255</v>
+        <v>0.4788418708240534</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.3877015373078365</v>
+        <v>0.4126159554730983</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.3158682634730539</v>
+        <v>0.3045572434234902</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.9359070464767616</v>
+        <v>0.8834879406307977</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.391304347826087</v>
+        <v>0.4304267161410019</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.8633120540743522</v>
+        <v>0.8368029739776952</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.5191154422788605</v>
+        <v>0.8389610389610389</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.3686377245508982</v>
+        <v>0.3497591700629863</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.350187265917603</v>
+        <v>0.3072646404744255</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.7272727272727273</v>
+        <v>0.6996282527881041</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.2819069069069069</v>
+        <v>0.5976968796433878</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.2628614344723996</v>
+        <v>0.6691449814126395</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.8711127763207194</v>
+        <v>0.8249258160237388</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.349438202247191</v>
+        <v>0.3752317389692251</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.2683383233532934</v>
+        <v>0.2886254168210448</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.4187265917602996</v>
+        <v>0.2557449962935508</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.4311961004874391</v>
+        <v>0.3589458054936897</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.2956423741547708</v>
+        <v>0.3353159851301115</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.2306252339947585</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.3652762119503946</v>
+        <v>0.4590773809523809</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.8630344305713205</v>
+        <v>0.9138576779026217</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.952755905511811</v>
+        <v>0.9788418708240535</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.3654422788605697</v>
+        <v>0.2451780415430267</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.7924812030075188</v>
+        <v>0.9054707852623743</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.3359580052493438</v>
+        <v>0.3012987012987013</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.2329332333083271</v>
+        <v>0.2710731526178983</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.6775525525525525</v>
+        <v>0.9186176142697882</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.901387326584177</v>
+        <v>0.9361544172234595</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.9857303792714983</v>
+        <v>0.9728624535315985</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.8672932330827068</v>
+        <v>0.9010048381094157</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.6793687451886066</v>
+        <v>0.904036557501904</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.4960600375234522</v>
+        <v>0.8380386329866271</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.2436281859070465</v>
+        <v>0.2426716141001855</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.2462518740629685</v>
+        <v>0.3313543599257885</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.9211119459053343</v>
+        <v>0.9126069170695426</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.4624906226556639</v>
+        <v>0.5759376160415893</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.7147714393653193</v>
+        <v>0.5585046728971963</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.9054054054054054</v>
+        <v>0.8825715347454478</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.9124718256949662</v>
+        <v>0.9880996653030867</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.9341610233258089</v>
+        <v>0.8622486969471332</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.3716317365269461</v>
+        <v>0.3323453130789181</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.3622754491017964</v>
+        <v>0.3101148573545758</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.2941838649155722</v>
+        <v>0.2455423476968796</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.253003003003003</v>
+        <v>0.3807578008915304</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.4208944006012777</v>
+        <v>0.5825892857142857</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.2106847253574116</v>
+        <v>0.1857781087118392</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.8978978978978979</v>
+        <v>0.9479747305834262</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.2936984246061515</v>
+        <v>0.3238024507983661</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.3342065868263473</v>
+        <v>0.2675064838829196</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.5726047904191617</v>
+        <v>0.9792515746572805</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.9115110611173604</v>
+        <v>0.9936896807720861</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.1793907484016548</v>
+        <v>0.1879419426870115</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.3169357867067217</v>
+        <v>0.6144981412639405</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.6875468867216804</v>
+        <v>0.8889714073523951</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.7203453453453453</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.3057634730538922</v>
+        <v>0.2804742497221193</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.4664416947881515</v>
+        <v>0.8184855233853007</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.7764441110277569</v>
+        <v>0.9145933902710731</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.7229096362954631</v>
+        <v>0.923162583518931</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.8938484621155289</v>
+        <v>0.9910880059413294</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.975234521575985</v>
+        <v>0.9988855869242199</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.2964352720450281</v>
+        <v>0.4550520059435364</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.7595224559408755</v>
+        <v>0.7604924454392837</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.2885479041916167</v>
+        <v>0.2593553167839941</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.8878942881500427</v>
+        <v>0.9549283909014322</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.4131983502062242</v>
+        <v>0.7873051224944321</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.7559055118110236</v>
+        <v>0.9057164068299925</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.4054866591506952</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.9879924953095685</v>
+        <v>0.9936849925705795</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.2671412514050206</v>
+        <v>0.2425816023738872</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.9097744360902256</v>
+        <v>0.9248511904761905</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.9232784431137725</v>
+        <v>0.9336791404223787</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.7898089171974523</v>
+        <v>0.4061572700296736</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.3718574108818011</v>
+        <v>0.6515601783060921</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.3383233532934132</v>
+        <v>0.3219711004075583</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.3068862275449102</v>
+        <v>0.3371619118191923</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.7904761904761904</v>
+        <v>0.9528835280814173</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.2452265069262448</v>
+        <v>0.2342475908080059</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.5916760404949382</v>
+        <v>0.4547141796585004</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.6822955738934734</v>
+        <v>0.966951355365763</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>

--- a/website/word_heat/data/topic_percentile.xlsx
+++ b/website/word_heat/data/topic_percentile.xlsx
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.2307121661721068</v>
+        <v>0.1929759704251386</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.2718842729970327</v>
+        <v>0.2243992606284658</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.366369710467706</v>
+        <v>0.2497225305216426</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.3667037449017427</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.62726935902186</v>
+        <v>0.6702363367799113</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.3421346225362588</v>
+        <v>0.1882876204595997</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.1904409040385328</v>
+        <v>0.2005169867060561</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.5906562847608454</v>
+        <v>0.8806356245380635</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.3996289424860853</v>
+        <v>0.2784763313609467</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.4866369710467706</v>
+        <v>0.3688494265630781</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.5944540727902946</v>
+        <v>0.3370738023305999</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.5055679287305123</v>
+        <v>0.5005549389567148</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.6564007421150279</v>
+        <v>0.5610207100591716</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.5178438661710038</v>
+        <v>0.3382734346054094</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.4100185528756957</v>
+        <v>0.2159763313609467</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.937383525903839</v>
+        <v>0.9011887072808321</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.161170804001482</v>
+        <v>0.1237075332348597</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.8517830609212481</v>
+        <v>0.8407997038134024</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.9277467411545623</v>
+        <v>0.9513734224201931</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.2900593471810089</v>
+        <v>0.2240295748613678</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4788418708240534</v>
+        <v>0.4513503514613392</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.4126159554730983</v>
+        <v>0.8187869822485208</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.3045572434234902</v>
+        <v>0.3482274741506647</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.8834879406307977</v>
+        <v>0.8210059171597633</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.4304267161410019</v>
+        <v>0.2670118343195266</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.8368029739776952</v>
+        <v>0.9418303075213041</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.8389610389610389</v>
+        <v>0.7318786982248521</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.3497591700629863</v>
+        <v>0.3593057607090103</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.3072646404744255</v>
+        <v>0.2667159216845216</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.6996282527881041</v>
+        <v>0.7576880326046684</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.5976968796433878</v>
+        <v>0.6616068122917438</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.6691449814126395</v>
+        <v>0.7347165616895146</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.8249258160237388</v>
+        <v>0.9245841035120148</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.3752317389692251</v>
+        <v>0.402069475240207</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.2886254168210448</v>
+        <v>0.2570162481536189</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.2557449962935508</v>
+        <v>0.2101957886959734</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.3589458054936897</v>
+        <v>0.268220495745468</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.3353159851301115</v>
+        <v>0.3697665802148944</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.2253521126760563</v>
+        <v>0.1717768747691171</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.4590773809523809</v>
+        <v>0.2639970337411939</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.9138576779026217</v>
+        <v>0.8924972004479284</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.9788418708240535</v>
+        <v>0.9918608953015169</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.2451780415430267</v>
+        <v>0.2240295748613678</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.9054707852623743</v>
+        <v>0.8008160237388724</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.3012987012987013</v>
+        <v>0.3065828402366864</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.2710731526178983</v>
+        <v>0.2409326424870466</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.9186176142697882</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.9361544172234595</v>
+        <v>0.7695153533111357</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.9728624535315985</v>
+        <v>0.952204520192664</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.9010048381094157</v>
+        <v>0.9873887240356083</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.904036557501904</v>
+        <v>0.6850094876660342</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.8380386329866271</v>
+        <v>0.6390225842280637</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.2426716141001855</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.3313543599257885</v>
+        <v>0.5832100591715976</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.9126069170695426</v>
+        <v>0.9499629355077835</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.5759376160415893</v>
+        <v>0.3649148778682457</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.5585046728971963</v>
+        <v>0.282414307004471</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.8825715347454478</v>
+        <v>0.8377777777777777</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.9880996653030867</v>
+        <v>0.997405485544848</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.8622486969471332</v>
+        <v>0.7695732838589981</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.3323453130789181</v>
+        <v>0.3068685376661743</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.3101148573545758</v>
+        <v>0.362629246676514</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.2455423476968796</v>
+        <v>0.1688263606071825</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.3807578008915304</v>
+        <v>0.3395038874490929</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.5825892857142857</v>
+        <v>0.4293659621802002</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.1857781087118392</v>
+        <v>0.211873840445269</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.9479747305834262</v>
+        <v>0.9744444444444444</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.3238024507983661</v>
+        <v>0.2583271650629164</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.2675064838829196</v>
+        <v>0.206794682422452</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.9792515746572805</v>
+        <v>0.9394387001477105</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.9936896807720861</v>
+        <v>0.9992600813910469</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.1879419426870115</v>
+        <v>0.1379821958456973</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.6144981412639405</v>
+        <v>0.3119673953316043</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.8889714073523951</v>
+        <v>0.8774981495188749</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.5811965811965812</v>
+        <v>0.3177777777777778</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.2804742497221193</v>
+        <v>0.2503692762186115</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.8184855233853007</v>
+        <v>0.9648538660747318</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.9145933902710731</v>
+        <v>0.9859363434492968</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.923162583518931</v>
+        <v>0.9367369589345172</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.9910880059413294</v>
+        <v>0.999259807549963</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.9988855869242199</v>
+        <v>0.9911144020733061</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.4550520059435364</v>
+        <v>0.3343206219918549</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.7604924454392837</v>
+        <v>0.7566815144766147</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.2593553167839941</v>
+        <v>0.2008862629246677</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.9549283909014322</v>
+        <v>0.9345362987830466</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.7873051224944321</v>
+        <v>0.9963004069552349</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.9057164068299925</v>
+        <v>0.997040325564188</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.5535714285714286</v>
+        <v>0.3496477567667779</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.9936849925705795</v>
+        <v>0.9970381340244354</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.2425816023738872</v>
+        <v>0.2036968576709797</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.9248511904761905</v>
+        <v>0.9102706711160549</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.9336791404223787</v>
+        <v>0.9571639586410635</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.4061572700296736</v>
+        <v>0.3146025878003697</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.6515601783060921</v>
+        <v>0.689374305812662</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.3219711004075583</v>
+        <v>0.3179468242245199</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.3371619118191923</v>
+        <v>0.6742983751846381</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.9528835280814173</v>
+        <v>0.9267468069120962</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.2342475908080059</v>
+        <v>0.2020687107499076</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.4547141796585004</v>
+        <v>0.2323344432112468</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.966951355365763</v>
+        <v>0.9766839378238342</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>

--- a/website/word_heat/data/topic_percentile.xlsx
+++ b/website/word_heat/data/topic_percentile.xlsx
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.1929759704251386</v>
+        <v>0.2420358842914683</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.2243992606284658</v>
+        <v>0.2943976565360674</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.2497225305216426</v>
+        <v>0.3393184316599487</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.3484848484848485</v>
+        <v>0.2811127379209371</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.6702363367799113</v>
+        <v>0.4396488661302121</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.1882876204595997</v>
+        <v>0.3649045521292217</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.2005169867060561</v>
+        <v>0.1737381126554499</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.8806356245380635</v>
+        <v>0.7712298682284041</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.2784763313609467</v>
+        <v>0.395970695970696</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.3688494265630781</v>
+        <v>0.5657750091608648</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.3370738023305999</v>
+        <v>0.7026450511945392</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.5005549389567148</v>
+        <v>0.3495786002198608</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.5610207100591716</v>
+        <v>0.5234432234432235</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.3382734346054094</v>
+        <v>0.4722935779816514</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.2159763313609467</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.9011887072808321</v>
+        <v>0.9746136865342163</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.1237075332348597</v>
+        <v>0.09729334308705194</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.8407997038134024</v>
+        <v>0.8536853685368537</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.9513734224201931</v>
+        <v>0.9283088235294118</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.2240295748613678</v>
+        <v>0.4317099963383376</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4513503514613392</v>
+        <v>0.5536826676438256</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.8187869822485208</v>
+        <v>0.5373626373626373</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.3482274741506647</v>
+        <v>0.2713972201901975</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.8210059171597633</v>
+        <v>0.8391941391941392</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.2670118343195266</v>
+        <v>0.3362637362637363</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.9418303075213041</v>
+        <v>0.846605504587156</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.7318786982248521</v>
+        <v>0.8981684981684982</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.3593057607090103</v>
+        <v>0.2980980248719824</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.2667159216845216</v>
+        <v>0.2824734723746798</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.7576880326046684</v>
+        <v>0.8811009174311927</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.6616068122917438</v>
+        <v>0.5823248991565824</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.7347165616895146</v>
+        <v>0.8741284403669725</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.9245841035120148</v>
+        <v>0.859758330281948</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.402069475240207</v>
+        <v>0.3704245973645681</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.2570162481536189</v>
+        <v>0.2253108997805413</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.2101957886959734</v>
+        <v>0.2224661544090743</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.268220495745468</v>
+        <v>0.3689996335654085</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.3697665802148944</v>
+        <v>0.3955963302752293</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.1717768747691171</v>
+        <v>0.212586900841566</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.2639970337411939</v>
+        <v>0.5222181417554168</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.8924972004479284</v>
+        <v>0.8073937153419594</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.9918608953015169</v>
+        <v>0.9706852326859655</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.2240295748613678</v>
+        <v>0.2171365800073233</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.8008160237388724</v>
+        <v>0.9904481998530492</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.3065828402366864</v>
+        <v>0.2882783882783883</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.2409326424870466</v>
+        <v>0.4648093841642228</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.9074074074074074</v>
+        <v>0.9666177549523111</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.7695153533111357</v>
+        <v>0.8992304873580066</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.952204520192664</v>
+        <v>0.9618348623853211</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.9873887240356083</v>
+        <v>0.9132990448199853</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.6850094876660342</v>
+        <v>0.325065764750094</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.6390225842280637</v>
+        <v>0.81994866153282</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.2115384615384615</v>
+        <v>0.2542124542124542</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.5832100591715976</v>
+        <v>0.4981684981684982</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.9499629355077835</v>
+        <v>0.867474302496329</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.3649148778682457</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.282414307004471</v>
+        <v>0.407380073800738</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.8377777777777777</v>
+        <v>0.6643433602347762</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.997405485544848</v>
+        <v>0.98568281938326</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.7695732838589981</v>
+        <v>0.7905181918412348</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.3068685376661743</v>
+        <v>0.2688368690563277</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.362629246676514</v>
+        <v>0.2622531089978054</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.1688263606071825</v>
+        <v>0.2313898056472314</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.3395038874490929</v>
+        <v>0.5265859919325265</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.4293659621802002</v>
+        <v>0.6478149100257069</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.211873840445269</v>
+        <v>0.2554208011760382</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.9744444444444444</v>
+        <v>0.9431401320616287</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.2583271650629164</v>
+        <v>0.4079912023460411</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.206794682422452</v>
+        <v>0.2077542062911485</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.9394387001477105</v>
+        <v>0.9970738844184345</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.9992600813910469</v>
+        <v>0.9890069622572371</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.1379821958456973</v>
+        <v>0.1664217487141808</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.3119673953316043</v>
+        <v>0.5324770642201835</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.8774981495188749</v>
+        <v>0.9549120234604106</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.3177777777777778</v>
+        <v>0.5469552457813647</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.2503692762186115</v>
+        <v>0.2702999268471105</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.9648538660747318</v>
+        <v>0.9241480395749359</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.9859363434492968</v>
+        <v>0.9266862170087976</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.9367369589345172</v>
+        <v>0.9377061194576768</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.999259807549963</v>
+        <v>0.9978005865102639</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.9911144020733061</v>
+        <v>0.995966263292996</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.3343206219918549</v>
+        <v>0.3164649798313164</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.7566815144766147</v>
+        <v>0.637211855104281</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.2008862629246677</v>
+        <v>0.2011704462326262</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.9345362987830466</v>
+        <v>0.9593192195931922</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.9963004069552349</v>
+        <v>0.8299743495786002</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.997040325564188</v>
+        <v>0.9285452546720411</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.3496477567667779</v>
+        <v>0.5358060962174073</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.9970381340244354</v>
+        <v>0.9915658232489916</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.2036968576709797</v>
+        <v>0.2134749176125961</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.9102706711160549</v>
+        <v>0.8927653323540213</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.9571639586410635</v>
+        <v>0.9089246525237746</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.3146025878003697</v>
+        <v>0.2903698279018674</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.689374305812662</v>
+        <v>0.7282728272827282</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.3179468242245199</v>
+        <v>0.2713972201901975</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.6742983751846381</v>
+        <v>0.3953913679590344</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.9267468069120962</v>
+        <v>0.9129464285714286</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.2020687107499076</v>
+        <v>0.2418587632638127</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.2323344432112468</v>
+        <v>0.51484060095273</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.9766839378238342</v>
+        <v>0.9534457478005866</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>

--- a/website/word_heat/data/topic_percentile.xlsx
+++ b/website/word_heat/data/topic_percentile.xlsx
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.2420358842914683</v>
+        <v>0.1948939230492629</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.2943976565360674</v>
+        <v>0.2387630348795397</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.3393184316599487</v>
+        <v>0.3083843109032026</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.2811127379209371</v>
+        <v>0.2422717469446442</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.4396488661302121</v>
+        <v>0.2898706896551724</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.3649045521292217</v>
+        <v>0.2577505407354002</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.1737381126554499</v>
+        <v>0.0298132183908046</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.7712298682284041</v>
+        <v>0.6445003594536305</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.395970695970696</v>
+        <v>0.3129496402877698</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.5657750091608648</v>
+        <v>0.3713566030946384</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.7026450511945392</v>
+        <v>0.1751672240802676</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.3495786002198608</v>
+        <v>0.2688017272400144</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.5234432234432235</v>
+        <v>0.3356115107913669</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.4722935779816514</v>
+        <v>0.6735135135135135</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.2615384615384616</v>
+        <v>0.2474820143884892</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.9746136865342163</v>
+        <v>0.9346098265895953</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.09729334308705194</v>
+        <v>0.003232758620689655</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.8536853685368537</v>
+        <v>0.7670147641339575</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.9283088235294118</v>
+        <v>0.7794223826714801</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.4317099963383376</v>
+        <v>0.272923408845739</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.5536826676438256</v>
+        <v>0.4001439366678661</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.5373626373626373</v>
+        <v>0.6053956834532375</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.2713972201901975</v>
+        <v>0.194683908045977</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.8391941391941392</v>
+        <v>0.6751798561151079</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.3362637362637363</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.846605504587156</v>
+        <v>0.7823423423423423</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.8981684981684982</v>
+        <v>0.8007194244604317</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.2980980248719824</v>
+        <v>0.2036637931034483</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.2824734723746798</v>
+        <v>0.2073302191879267</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.8811009174311927</v>
+        <v>0.7596396396396397</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.5823248991565824</v>
+        <v>0.4319164265129683</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.8741284403669725</v>
+        <v>0.767927927927928</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.859758330281948</v>
+        <v>0.7889248471772744</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.3704245973645681</v>
+        <v>0.2724658519051043</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.2253108997805413</v>
+        <v>0.1698994252873563</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.2224661544090743</v>
+        <v>0.1940352137980597</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.3689996335654085</v>
+        <v>0.2889528607412739</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.3955963302752293</v>
+        <v>0.3246846846846847</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.212586900841566</v>
+        <v>0.1498383039885016</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.5222181417554168</v>
+        <v>0.3198701767039308</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.8073937153419594</v>
+        <v>0.8773139745916515</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.9706852326859655</v>
+        <v>0.9247930910399424</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.2171365800073233</v>
+        <v>0.2049622437971952</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.9904481998530492</v>
+        <v>0.9098124098124099</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.2882783882783883</v>
+        <v>0.2334532374100719</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.4648093841642228</v>
+        <v>0.2631389488840893</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.9666177549523111</v>
+        <v>0.8613112391930836</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.8992304873580066</v>
+        <v>0.8107232817560274</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.9618348623853211</v>
+        <v>0.9852252252252253</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.9132990448199853</v>
+        <v>0.9787157287157288</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.325065764750094</v>
+        <v>0.3003690036900369</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.81994866153282</v>
+        <v>0.6805905653583003</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.2542124542124542</v>
+        <v>0.1892086330935252</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.4981684981684982</v>
+        <v>0.2874100719424461</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.867474302496329</v>
+        <v>0.665465032444124</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.532258064516129</v>
+        <v>0.435565154787617</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.407380073800738</v>
+        <v>0.3757246376811594</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.6643433602347762</v>
+        <v>0.7759365994236311</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.98568281938326</v>
+        <v>0.9578226387887527</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.7905181918412348</v>
+        <v>0.7758931793576326</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.2688368690563277</v>
+        <v>0.1939655172413793</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.2622531089978054</v>
+        <v>0.1939655172413793</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.2313898056472314</v>
+        <v>0.2059776737486496</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.5265859919325265</v>
+        <v>0.4602088584803745</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.6478149100257069</v>
+        <v>0.6764069264069265</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.2554208011760382</v>
+        <v>0.1866425992779783</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.9431401320616287</v>
+        <v>0.9020172910662824</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.4079912023460411</v>
+        <v>0.2786177105831533</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.2077542062911485</v>
+        <v>0.1817528735632184</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.9970738844184345</v>
+        <v>0.2686781609195402</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.9890069622572371</v>
+        <v>0.9636429085673146</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.1664217487141808</v>
+        <v>0.1360519667989895</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.5324770642201835</v>
+        <v>0.3272072072072072</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.9549120234604106</v>
+        <v>0.6209503239740821</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.5469552457813647</v>
+        <v>0.4762247838616715</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.2702999268471105</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.9241480395749359</v>
+        <v>0.8377114069809284</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.9266862170087976</v>
+        <v>0.822174226061915</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.9377061194576768</v>
+        <v>0.9517812162648435</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.9978005865102639</v>
+        <v>0.9974802015838733</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.995966263292996</v>
+        <v>0.9787540511343176</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.3164649798313164</v>
+        <v>0.3075261073100468</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.637211855104281</v>
+        <v>0.3319080705505077</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.2011704462326262</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.9593192195931922</v>
+        <v>0.9825061025223759</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.8299743495786002</v>
+        <v>0.622885930190716</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.9285452546720411</v>
+        <v>0.79273119827276</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.5358060962174073</v>
+        <v>0.7014064190407501</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.9915658232489916</v>
+        <v>0.992077781778898</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.2134749176125961</v>
+        <v>0.1815893563466379</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.8927653323540213</v>
+        <v>0.8160836639019113</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.9089246525237746</v>
+        <v>0.8915229885057471</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.2903698279018674</v>
+        <v>0.2175476447321107</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.7282728272827282</v>
+        <v>0.541591645660785</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.2713972201901975</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.3953913679590344</v>
+        <v>0.2424568965517241</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.9129464285714286</v>
+        <v>0.8980635732553891</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.2418587632638127</v>
+        <v>0.2012217031979878</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.51484060095273</v>
+        <v>0.3987045699892047</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.9534457478005866</v>
+        <v>0.9643628509719222</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>

--- a/website/word_heat/data/topic_percentile.xlsx
+++ b/website/word_heat/data/topic_percentile.xlsx
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.1948939230492629</v>
+        <v>0.286411149825784</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.2387630348795397</v>
+        <v>0.2181184668989547</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.3083843109032026</v>
+        <v>0.2649930264993027</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.2422717469446442</v>
+        <v>0.4294670846394985</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2898706896551724</v>
+        <v>0.2889972144846797</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.2577505407354002</v>
+        <v>0.2406566538595878</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.0298132183908046</v>
+        <v>0.05779944289693593</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.6445003594536305</v>
+        <v>0.8098223615464994</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.3129496402877698</v>
+        <v>0.2760543743464622</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.3713566030946384</v>
+        <v>0.3605299860529986</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.1751672240802676</v>
+        <v>0.6661290322580645</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.2688017272400144</v>
+        <v>0.3201953261248692</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.3356115107913669</v>
+        <v>0.3433252004182642</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.6735135135135135</v>
+        <v>0.4633379888268156</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.2474820143884892</v>
+        <v>0.2307424189613106</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.9346098265895953</v>
+        <v>0.7754816112084063</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.003232758620689655</v>
+        <v>0.01950539881574364</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.7670147641339575</v>
+        <v>0.6891137473831124</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.7794223826714801</v>
+        <v>0.7305808257522743</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.272923408845739</v>
+        <v>0.2881533101045296</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4001439366678661</v>
+        <v>0.4135285913528591</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.6053956834532375</v>
+        <v>0.8870686650400836</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.194683908045977</v>
+        <v>0.2465181058495822</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.6751798561151079</v>
+        <v>0.5472289996514464</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.2589928057553957</v>
+        <v>0.2370163820146393</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.7823423423423423</v>
+        <v>0.6884387006636395</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.8007194244604317</v>
+        <v>0.7392819797838969</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.2036637931034483</v>
+        <v>0.2749738948833971</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.2073302191879267</v>
+        <v>0.2855153203342619</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.7596396396396397</v>
+        <v>0.5900837988826816</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.4319164265129683</v>
+        <v>0.3387997208653175</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.767927927927928</v>
+        <v>0.482891061452514</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.7889248471772744</v>
+        <v>0.7390243902439024</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.2724658519051043</v>
+        <v>0.3099965168930686</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.1698994252873563</v>
+        <v>0.2220675252349461</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.1940352137980597</v>
+        <v>0.2430362116991643</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.2889528607412739</v>
+        <v>0.2353556485355648</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.3246846846846847</v>
+        <v>0.2908519553072625</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.1498383039885016</v>
+        <v>0.2078690807799443</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.3198701767039308</v>
+        <v>0.3308874912648497</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.8773139745916515</v>
+        <v>0.8343299331691875</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.9247930910399424</v>
+        <v>0.9271014998256016</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.2049622437971952</v>
+        <v>0.2491289198606272</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.9098124098124099</v>
+        <v>0.836013986013986</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.2334532374100719</v>
+        <v>0.2865109794353433</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.2631389488840893</v>
+        <v>0.2905476107429369</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.8613112391930836</v>
+        <v>0.7713787085514834</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.8107232817560274</v>
+        <v>0.5871687587168759</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.9852252252252253</v>
+        <v>0.9151536312849162</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.9787157287157288</v>
+        <v>0.8898986368402656</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.3003690036900369</v>
+        <v>0.2240886347390993</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.6805905653583003</v>
+        <v>0.5537334263782275</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.1892086330935252</v>
+        <v>0.2331822934820495</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.2874100719424461</v>
+        <v>0.3433252004182642</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.665465032444124</v>
+        <v>0.6645702306079665</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.435565154787617</v>
+        <v>0.3791419602371817</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.3757246376811594</v>
+        <v>0.4304775280898877</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.7759365994236311</v>
+        <v>0.6012569832402235</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.9578226387887527</v>
+        <v>0.8952148096402375</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.7758931793576326</v>
+        <v>0.8317593564183281</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>0.1939655172413793</v>
+        <v>0.2252785515320334</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>0.1939655172413793</v>
+        <v>0.1959624086320919</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>0.2059776737486496</v>
+        <v>0.2271458478715981</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>0.4602088584803745</v>
+        <v>0.4764397905759162</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>0.6764069264069265</v>
+        <v>0.5062893081761006</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>0.1866425992779783</v>
+        <v>0.2196572228051766</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>0.9020172910662824</v>
+        <v>0.9039804469273743</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>0.2786177105831533</v>
+        <v>0.3233344959888385</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>0.1817528735632184</v>
+        <v>0.2137138879220327</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>0.2686781609195402</v>
+        <v>0.2806406685236769</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>0.9636429085673146</v>
+        <v>0.9117544471573072</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>0.1360519667989895</v>
+        <v>0.1804826862539349</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>0.3272072072072072</v>
+        <v>0.3016759776536313</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>0.6209503239740821</v>
+        <v>0.6389954656435298</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>0.4762247838616715</v>
+        <v>0.4415357766143106</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>0.02586206896551724</v>
+        <v>0.11277410372433</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>0.8377114069809284</v>
+        <v>0.6624825662482566</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>0.822174226061915</v>
+        <v>0.8754361479413817</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>0.9517812162648435</v>
+        <v>0.7768479776847977</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>0.9974802015838733</v>
+        <v>0.9372166027206139</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>0.9787540511343176</v>
+        <v>0.8771807397069086</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>0.3075261073100468</v>
+        <v>0.2602930914166085</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>0.3319080705505077</v>
+        <v>0.4088820826952527</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>0.1354166666666667</v>
+        <v>0.1886529759832927</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>0.9825061025223759</v>
+        <v>0.8931657501963864</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>0.622885930190716</v>
+        <v>0.594839609483961</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>0.79273119827276</v>
+        <v>0.75278940027894</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>0.7014064190407501</v>
+        <v>0.5408805031446541</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>0.992077781778898</v>
+        <v>0.9277739009071877</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>0.1815893563466379</v>
+        <v>0.2222996515679443</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>0.8160836639019113</v>
+        <v>0.7986717930793429</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>0.8915229885057471</v>
+        <v>0.7705431754874652</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>0.2175476447321107</v>
+        <v>0.2400696864111498</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>0.541591645660785</v>
+        <v>0.4898813677599442</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>0.1839080459770115</v>
+        <v>0.2781065088757396</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>0.2424568965517241</v>
+        <v>0.286460146188653</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>0.8980635732553891</v>
+        <v>0.7734513274336283</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>0.2012217031979878</v>
+        <v>0.2360724233983287</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>0.3987045699892047</v>
+        <v>0.3838912133891214</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>0.9643628509719222</v>
+        <v>0.9005582693649686</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
